--- a/comp9323-backend/cu_data.xlsx
+++ b/comp9323-backend/cu_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="72">
   <si>
     <t>c001</t>
   </si>
@@ -48,49 +48,190 @@
     <t>u00001</t>
   </si>
   <si>
-    <t>a4372100</t>
-  </si>
-  <si>
     <t>u00002</t>
   </si>
   <si>
-    <t>a2292000</t>
-  </si>
-  <si>
     <t>u00003</t>
   </si>
   <si>
-    <t>a7375390</t>
-  </si>
-  <si>
     <t>u00004</t>
   </si>
   <si>
-    <t>s5301131</t>
-  </si>
-  <si>
     <t>u00005</t>
   </si>
   <si>
-    <t>s5278144</t>
-  </si>
-  <si>
     <t>u00006</t>
   </si>
   <si>
-    <t>s5239738</t>
-  </si>
-  <si>
     <t>u00007</t>
   </si>
   <si>
-    <t>s5378096</t>
-  </si>
-  <si>
     <t>u00008</t>
   </si>
   <si>
-    <t>s5155149</t>
+    <t>u00009</t>
+  </si>
+  <si>
+    <t>u00010</t>
+  </si>
+  <si>
+    <t>u00011</t>
+  </si>
+  <si>
+    <t>u00012</t>
+  </si>
+  <si>
+    <t>u00013</t>
+  </si>
+  <si>
+    <t>u00014</t>
+  </si>
+  <si>
+    <t>u00015</t>
+  </si>
+  <si>
+    <t>u00016</t>
+  </si>
+  <si>
+    <t>u00017</t>
+  </si>
+  <si>
+    <t>u00018</t>
+  </si>
+  <si>
+    <t>u00019</t>
+  </si>
+  <si>
+    <t>u00020</t>
+  </si>
+  <si>
+    <t>u00021</t>
+  </si>
+  <si>
+    <t>u00022</t>
+  </si>
+  <si>
+    <t>u00023</t>
+  </si>
+  <si>
+    <t>u00024</t>
+  </si>
+  <si>
+    <t>u00025</t>
+  </si>
+  <si>
+    <t>u00026</t>
+  </si>
+  <si>
+    <t>u00027</t>
+  </si>
+  <si>
+    <t>u00028</t>
+  </si>
+  <si>
+    <t>u00029</t>
+  </si>
+  <si>
+    <t>u00030</t>
+  </si>
+  <si>
+    <t>u00031</t>
+  </si>
+  <si>
+    <t>u00032</t>
+  </si>
+  <si>
+    <t>u00033</t>
+  </si>
+  <si>
+    <t>u00034</t>
+  </si>
+  <si>
+    <t>u00035</t>
+  </si>
+  <si>
+    <t>u00036</t>
+  </si>
+  <si>
+    <t>u00037</t>
+  </si>
+  <si>
+    <t>u00038</t>
+  </si>
+  <si>
+    <t>u00039</t>
+  </si>
+  <si>
+    <t>u00040</t>
+  </si>
+  <si>
+    <t>u00041</t>
+  </si>
+  <si>
+    <t>u00042</t>
+  </si>
+  <si>
+    <t>u00043</t>
+  </si>
+  <si>
+    <t>u00044</t>
+  </si>
+  <si>
+    <t>u00045</t>
+  </si>
+  <si>
+    <t>u00046</t>
+  </si>
+  <si>
+    <t>u00047</t>
+  </si>
+  <si>
+    <t>u00048</t>
+  </si>
+  <si>
+    <t>u00049</t>
+  </si>
+  <si>
+    <t>u00050</t>
+  </si>
+  <si>
+    <t>u00051</t>
+  </si>
+  <si>
+    <t>u00052</t>
+  </si>
+  <si>
+    <t>u00053</t>
+  </si>
+  <si>
+    <t>u00054</t>
+  </si>
+  <si>
+    <t>u00055</t>
+  </si>
+  <si>
+    <t>u00056</t>
+  </si>
+  <si>
+    <t>u00057</t>
+  </si>
+  <si>
+    <t>u00058</t>
+  </si>
+  <si>
+    <t>u00059</t>
+  </si>
+  <si>
+    <t>u00060</t>
+  </si>
+  <si>
+    <t>u00061</t>
+  </si>
+  <si>
+    <t>u00062</t>
+  </si>
+  <si>
+    <t>u00063</t>
   </si>
 </sst>
 </file>
@@ -134,29 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,43 +291,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,40 +344,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,14 +388,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +440,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,37 +554,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,25 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,55 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +644,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -519,24 +690,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,190 +718,176 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1023,53 +1167,53 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>44711</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="6">
         <v>44815</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>44711</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>44815</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>44711</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>44815</v>
       </c>
     </row>
@@ -1084,99 +1228,515 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1191,210 +1751,1797 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.6339285714286" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:3">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:3">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:3">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:3">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:3">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:3">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:3">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:3">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:3">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:3">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:3">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:3">
+      <c r="A55" s="2">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:3">
+      <c r="A56" s="2">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:3">
+      <c r="A57" s="2">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:3">
+      <c r="A58" s="2">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="59" customHeight="1" spans="1:3">
+      <c r="A59" s="2">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:3">
+      <c r="A60" s="2">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="61" customHeight="1" spans="1:3">
+      <c r="A61" s="2">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:3">
+      <c r="A62" s="2">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="63" customHeight="1" spans="1:3">
+      <c r="A63" s="2">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:3">
+      <c r="A64" s="2">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="65" customHeight="1" spans="1:3">
+      <c r="A65" s="2">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:3">
+      <c r="A66" s="2">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="1">
+    <row r="67" customHeight="1" spans="1:3">
+      <c r="A67" s="2">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
+      <c r="A68" s="2">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:3">
+      <c r="A69" s="2">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:3">
+      <c r="A70" s="2">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:3">
+      <c r="A71" s="2">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:3">
+      <c r="A72" s="2">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:3">
+      <c r="A73" s="2">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:3">
+      <c r="A74" s="2">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:3">
+      <c r="A75" s="2">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:3">
+      <c r="A76" s="2">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:3">
+      <c r="A77" s="2">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:3">
+      <c r="A78" s="2">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:3">
+      <c r="A79" s="2">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:3">
+      <c r="A80" s="2">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:3">
+      <c r="A81" s="2">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:3">
+      <c r="A82" s="2">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:3">
+      <c r="A83" s="2">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:3">
+      <c r="A84" s="2">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:3">
+      <c r="A85" s="2">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:3">
+      <c r="A86" s="2">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:3">
+      <c r="A87" s="2">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:3">
+      <c r="A88" s="2">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:3">
+      <c r="A89" s="2">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:3">
+      <c r="A90" s="2">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:3">
+      <c r="A91" s="2">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:3">
+      <c r="A92" s="2">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:3">
+      <c r="A93" s="2">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:3">
+      <c r="A94" s="2">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:3">
+      <c r="A95" s="2">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:3">
+      <c r="A96" s="2">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:3">
+      <c r="A97" s="2">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:3">
+      <c r="A98" s="2">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:3">
+      <c r="A99" s="2">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:3">
+      <c r="A100" s="2">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:3">
+      <c r="A101" s="2">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:3">
+      <c r="A102" s="2">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:3">
+      <c r="A103" s="2">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:3">
+      <c r="A104" s="2">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:3">
+      <c r="A105" s="2">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:3">
+      <c r="A106" s="2">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:3">
+      <c r="A107" s="2">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:3">
+      <c r="A108" s="2">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:3">
+      <c r="A109" s="2">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:3">
+      <c r="A110" s="2">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:3">
+      <c r="A111" s="2">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:3">
+      <c r="A112" s="2">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:3">
+      <c r="A113" s="2">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:3">
+      <c r="A114" s="2">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:3">
+      <c r="A115" s="2">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="116" customHeight="1" spans="1:3">
+      <c r="A116" s="2">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="117" customHeight="1" spans="1:3">
+      <c r="A117" s="2">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:3">
+      <c r="A118" s="2">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="119" customHeight="1" spans="1:3">
+      <c r="A119" s="2">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:3">
+      <c r="A120" s="2">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="121" customHeight="1" spans="1:3">
+      <c r="A121" s="2">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:3">
+      <c r="A122" s="2">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="123" customHeight="1" spans="1:3">
+      <c r="A123" s="2">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:3">
+      <c r="A124" s="2">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:3">
+      <c r="A125" s="2">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:3">
+      <c r="A126" s="2">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:3">
+      <c r="A127" s="2">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:3">
+      <c r="A128" s="2">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:3">
+      <c r="A129" s="2">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:3">
+      <c r="A130" s="2">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:3">
+      <c r="A131" s="2">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:3">
+      <c r="A132" s="2">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:3">
+      <c r="A133" s="2">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:3">
+      <c r="A134" s="2">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:3">
+      <c r="A135" s="2">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:3">
+      <c r="A136" s="2">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:3">
+      <c r="A137" s="2">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:3">
+      <c r="A138" s="2">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:3">
+      <c r="A139" s="2">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:3">
+      <c r="A140" s="2">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:3">
+      <c r="A141" s="2">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:3">
+      <c r="A142" s="2">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:3">
+      <c r="A143" s="2">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:3">
+      <c r="A144" s="2">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:3">
+      <c r="A145" s="2">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:3">
+      <c r="A146" s="2">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:3">
+      <c r="A147" s="2">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:3">
+      <c r="A148" s="2">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:3">
+      <c r="A149" s="2">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:3">
+      <c r="A150" s="2">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:3">
+      <c r="A151" s="2">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:3">
+      <c r="A152" s="2">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:3">
+      <c r="A153" s="2">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:3">
+      <c r="A154" s="2">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:3">
+      <c r="A155" s="2">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:3">
+      <c r="A156" s="2">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:3">
+      <c r="A157" s="2">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:3">
+      <c r="A158" s="2">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:3">
+      <c r="A159" s="2">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:3">
+      <c r="A160" s="2">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:3">
+      <c r="A161" s="2">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:3">
+      <c r="A162" s="2">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/comp9323-backend/cu_data.xlsx
+++ b/comp9323-backend/cu_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13400" activeTab="1"/>
+    <workbookView windowWidth="27900" windowHeight="13400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="234">
   <si>
     <t>c001</t>
   </si>
@@ -232,6 +232,492 @@
   </si>
   <si>
     <t>u00063</t>
+  </si>
+  <si>
+    <t>cu000001</t>
+  </si>
+  <si>
+    <t>cu000002</t>
+  </si>
+  <si>
+    <t>cu000003</t>
+  </si>
+  <si>
+    <t>cu000004</t>
+  </si>
+  <si>
+    <t>cu000005</t>
+  </si>
+  <si>
+    <t>cu000006</t>
+  </si>
+  <si>
+    <t>cu000007</t>
+  </si>
+  <si>
+    <t>cu000008</t>
+  </si>
+  <si>
+    <t>cu000009</t>
+  </si>
+  <si>
+    <t>cu000010</t>
+  </si>
+  <si>
+    <t>cu000011</t>
+  </si>
+  <si>
+    <t>cu000012</t>
+  </si>
+  <si>
+    <t>cu000013</t>
+  </si>
+  <si>
+    <t>cu000014</t>
+  </si>
+  <si>
+    <t>cu000015</t>
+  </si>
+  <si>
+    <t>cu000016</t>
+  </si>
+  <si>
+    <t>cu000017</t>
+  </si>
+  <si>
+    <t>cu000018</t>
+  </si>
+  <si>
+    <t>cu000019</t>
+  </si>
+  <si>
+    <t>cu000020</t>
+  </si>
+  <si>
+    <t>cu000021</t>
+  </si>
+  <si>
+    <t>cu000022</t>
+  </si>
+  <si>
+    <t>cu000023</t>
+  </si>
+  <si>
+    <t>cu000024</t>
+  </si>
+  <si>
+    <t>cu000025</t>
+  </si>
+  <si>
+    <t>cu000026</t>
+  </si>
+  <si>
+    <t>cu000027</t>
+  </si>
+  <si>
+    <t>cu000028</t>
+  </si>
+  <si>
+    <t>cu000029</t>
+  </si>
+  <si>
+    <t>cu000030</t>
+  </si>
+  <si>
+    <t>cu000031</t>
+  </si>
+  <si>
+    <t>cu000032</t>
+  </si>
+  <si>
+    <t>cu000033</t>
+  </si>
+  <si>
+    <t>cu000034</t>
+  </si>
+  <si>
+    <t>cu000035</t>
+  </si>
+  <si>
+    <t>cu000036</t>
+  </si>
+  <si>
+    <t>cu000037</t>
+  </si>
+  <si>
+    <t>cu000038</t>
+  </si>
+  <si>
+    <t>cu000039</t>
+  </si>
+  <si>
+    <t>cu000040</t>
+  </si>
+  <si>
+    <t>cu000041</t>
+  </si>
+  <si>
+    <t>cu000042</t>
+  </si>
+  <si>
+    <t>cu000043</t>
+  </si>
+  <si>
+    <t>cu000044</t>
+  </si>
+  <si>
+    <t>cu000045</t>
+  </si>
+  <si>
+    <t>cu000046</t>
+  </si>
+  <si>
+    <t>cu000047</t>
+  </si>
+  <si>
+    <t>cu000048</t>
+  </si>
+  <si>
+    <t>cu000049</t>
+  </si>
+  <si>
+    <t>cu000050</t>
+  </si>
+  <si>
+    <t>cu000051</t>
+  </si>
+  <si>
+    <t>cu000052</t>
+  </si>
+  <si>
+    <t>cu000053</t>
+  </si>
+  <si>
+    <t>cu000054</t>
+  </si>
+  <si>
+    <t>cu000055</t>
+  </si>
+  <si>
+    <t>cu000056</t>
+  </si>
+  <si>
+    <t>cu000057</t>
+  </si>
+  <si>
+    <t>cu000058</t>
+  </si>
+  <si>
+    <t>cu000059</t>
+  </si>
+  <si>
+    <t>cu000060</t>
+  </si>
+  <si>
+    <t>cu000061</t>
+  </si>
+  <si>
+    <t>cu000062</t>
+  </si>
+  <si>
+    <t>cu000063</t>
+  </si>
+  <si>
+    <t>cu000064</t>
+  </si>
+  <si>
+    <t>cu000065</t>
+  </si>
+  <si>
+    <t>cu000066</t>
+  </si>
+  <si>
+    <t>cu000067</t>
+  </si>
+  <si>
+    <t>cu000068</t>
+  </si>
+  <si>
+    <t>cu000069</t>
+  </si>
+  <si>
+    <t>cu000070</t>
+  </si>
+  <si>
+    <t>cu000071</t>
+  </si>
+  <si>
+    <t>cu000072</t>
+  </si>
+  <si>
+    <t>cu000073</t>
+  </si>
+  <si>
+    <t>cu000074</t>
+  </si>
+  <si>
+    <t>cu000075</t>
+  </si>
+  <si>
+    <t>cu000076</t>
+  </si>
+  <si>
+    <t>cu000077</t>
+  </si>
+  <si>
+    <t>cu000078</t>
+  </si>
+  <si>
+    <t>cu000079</t>
+  </si>
+  <si>
+    <t>cu000080</t>
+  </si>
+  <si>
+    <t>cu000081</t>
+  </si>
+  <si>
+    <t>cu000082</t>
+  </si>
+  <si>
+    <t>cu000083</t>
+  </si>
+  <si>
+    <t>cu000084</t>
+  </si>
+  <si>
+    <t>cu000085</t>
+  </si>
+  <si>
+    <t>cu000086</t>
+  </si>
+  <si>
+    <t>cu000087</t>
+  </si>
+  <si>
+    <t>cu000088</t>
+  </si>
+  <si>
+    <t>cu000089</t>
+  </si>
+  <si>
+    <t>cu000090</t>
+  </si>
+  <si>
+    <t>cu000091</t>
+  </si>
+  <si>
+    <t>cu000092</t>
+  </si>
+  <si>
+    <t>cu000093</t>
+  </si>
+  <si>
+    <t>cu000094</t>
+  </si>
+  <si>
+    <t>cu000095</t>
+  </si>
+  <si>
+    <t>cu000096</t>
+  </si>
+  <si>
+    <t>cu000097</t>
+  </si>
+  <si>
+    <t>cu000098</t>
+  </si>
+  <si>
+    <t>cu000099</t>
+  </si>
+  <si>
+    <t>cu000100</t>
+  </si>
+  <si>
+    <t>cu000101</t>
+  </si>
+  <si>
+    <t>cu000102</t>
+  </si>
+  <si>
+    <t>cu000103</t>
+  </si>
+  <si>
+    <t>cu000104</t>
+  </si>
+  <si>
+    <t>cu000105</t>
+  </si>
+  <si>
+    <t>cu000106</t>
+  </si>
+  <si>
+    <t>cu000107</t>
+  </si>
+  <si>
+    <t>cu000108</t>
+  </si>
+  <si>
+    <t>cu000109</t>
+  </si>
+  <si>
+    <t>cu000110</t>
+  </si>
+  <si>
+    <t>cu000111</t>
+  </si>
+  <si>
+    <t>cu000112</t>
+  </si>
+  <si>
+    <t>cu000113</t>
+  </si>
+  <si>
+    <t>cu000114</t>
+  </si>
+  <si>
+    <t>cu000115</t>
+  </si>
+  <si>
+    <t>cu000116</t>
+  </si>
+  <si>
+    <t>cu000117</t>
+  </si>
+  <si>
+    <t>cu000118</t>
+  </si>
+  <si>
+    <t>cu000119</t>
+  </si>
+  <si>
+    <t>cu000120</t>
+  </si>
+  <si>
+    <t>cu000121</t>
+  </si>
+  <si>
+    <t>cu000122</t>
+  </si>
+  <si>
+    <t>cu000123</t>
+  </si>
+  <si>
+    <t>cu000124</t>
+  </si>
+  <si>
+    <t>cu000125</t>
+  </si>
+  <si>
+    <t>cu000126</t>
+  </si>
+  <si>
+    <t>cu000127</t>
+  </si>
+  <si>
+    <t>cu000128</t>
+  </si>
+  <si>
+    <t>cu000129</t>
+  </si>
+  <si>
+    <t>cu000130</t>
+  </si>
+  <si>
+    <t>cu000131</t>
+  </si>
+  <si>
+    <t>cu000132</t>
+  </si>
+  <si>
+    <t>cu000133</t>
+  </si>
+  <si>
+    <t>cu000134</t>
+  </si>
+  <si>
+    <t>cu000135</t>
+  </si>
+  <si>
+    <t>cu000136</t>
+  </si>
+  <si>
+    <t>cu000137</t>
+  </si>
+  <si>
+    <t>cu000138</t>
+  </si>
+  <si>
+    <t>cu000139</t>
+  </si>
+  <si>
+    <t>cu000140</t>
+  </si>
+  <si>
+    <t>cu000141</t>
+  </si>
+  <si>
+    <t>cu000142</t>
+  </si>
+  <si>
+    <t>cu000143</t>
+  </si>
+  <si>
+    <t>cu000144</t>
+  </si>
+  <si>
+    <t>cu000145</t>
+  </si>
+  <si>
+    <t>cu000146</t>
+  </si>
+  <si>
+    <t>cu000147</t>
+  </si>
+  <si>
+    <t>cu000148</t>
+  </si>
+  <si>
+    <t>cu000149</t>
+  </si>
+  <si>
+    <t>cu000150</t>
+  </si>
+  <si>
+    <t>cu000151</t>
+  </si>
+  <si>
+    <t>cu000152</t>
+  </si>
+  <si>
+    <t>cu000153</t>
+  </si>
+  <si>
+    <t>cu000154</t>
+  </si>
+  <si>
+    <t>cu000155</t>
+  </si>
+  <si>
+    <t>cu000156</t>
+  </si>
+  <si>
+    <t>cu000157</t>
+  </si>
+  <si>
+    <t>cu000158</t>
+  </si>
+  <si>
+    <t>cu000159</t>
+  </si>
+  <si>
+    <t>cu000160</t>
+  </si>
+  <si>
+    <t>cu000161</t>
+  </si>
+  <si>
+    <t>cu000162</t>
   </si>
 </sst>
 </file>
@@ -241,10 +727,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -282,29 +768,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,82 +779,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,6 +798,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -418,8 +828,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,7 +926,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,151 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,19 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,32 +1129,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,13 +1162,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,163 +1194,171 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1230,7 +1716,7 @@
   </sheetPr>
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1753,64 +2239,64 @@
   </sheetPr>
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.6339285714286" style="1"/>
+    <col min="1" max="3" width="12.6339285714286" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="2">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1818,10 +2304,10 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1829,10 +2315,10 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1840,10 +2326,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="2">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1851,10 +2337,10 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="2">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1862,10 +2348,10 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1873,10 +2359,10 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1884,10 +2370,10 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1895,10 +2381,10 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1906,10 +2392,10 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="2">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1917,10 +2403,10 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="2">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1928,10 +2414,10 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="2">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1939,10 +2425,10 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="2">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1950,10 +2436,10 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="2">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1961,10 +2447,10 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1972,10 +2458,10 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1983,10 +2469,10 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1994,10 +2480,10 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="2">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2005,10 +2491,10 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2016,10 +2502,10 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2027,10 +2513,10 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="2">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2038,10 +2524,10 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="2">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2049,10 +2535,10 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="2">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2060,10 +2546,10 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="2">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2071,10 +2557,10 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="2">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2082,10 +2568,10 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="2">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2093,10 +2579,10 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="2">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2104,10 +2590,10 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="2">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2115,10 +2601,10 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="2">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2126,10 +2612,10 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="2">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2137,10 +2623,10 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="2">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2148,10 +2634,10 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="2">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2159,10 +2645,10 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="2">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2170,10 +2656,10 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="2">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2181,10 +2667,10 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="2">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2192,10 +2678,10 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="2">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2203,10 +2689,10 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:3">
-      <c r="A41" s="2">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2214,10 +2700,10 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
-      <c r="A42" s="2">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2225,10 +2711,10 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:3">
-      <c r="A43" s="2">
-        <v>43</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2236,10 +2722,10 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:3">
-      <c r="A44" s="2">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2247,10 +2733,10 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:3">
-      <c r="A45" s="2">
-        <v>45</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2258,10 +2744,10 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:3">
-      <c r="A46" s="2">
-        <v>46</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2269,10 +2755,10 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:3">
-      <c r="A47" s="2">
-        <v>47</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2280,10 +2766,10 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:3">
-      <c r="A48" s="2">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2291,10 +2777,10 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
-      <c r="A49" s="2">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2302,10 +2788,10 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
-      <c r="A50" s="2">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2313,10 +2799,10 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
-      <c r="A51" s="2">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2324,10 +2810,10 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
-      <c r="A52" s="2">
-        <v>52</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2335,10 +2821,10 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
-      <c r="A53" s="2">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2346,10 +2832,10 @@
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
-      <c r="A54" s="2">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2357,10 +2843,10 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
-      <c r="A55" s="2">
-        <v>55</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2368,10 +2854,10 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
-      <c r="A56" s="2">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2379,10 +2865,10 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:3">
-      <c r="A57" s="2">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2390,10 +2876,10 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
-      <c r="A58" s="2">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2401,10 +2887,10 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
-      <c r="A59" s="2">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2412,10 +2898,10 @@
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
-      <c r="A60" s="2">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2423,10 +2909,10 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
-      <c r="A61" s="2">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2434,10 +2920,10 @@
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
-      <c r="A62" s="2">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2445,10 +2931,10 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
-      <c r="A63" s="2">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2456,10 +2942,10 @@
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:3">
-      <c r="A64" s="2">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2467,10 +2953,10 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:3">
-      <c r="A65" s="2">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2478,10 +2964,10 @@
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
-      <c r="A66" s="2">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2489,10 +2975,10 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
-      <c r="A67" s="2">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2500,10 +2986,10 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
-      <c r="A68" s="2">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2511,10 +2997,10 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
-      <c r="A69" s="2">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2522,10 +3008,10 @@
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
-      <c r="A70" s="2">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2533,10 +3019,10 @@
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:3">
-      <c r="A71" s="2">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2544,10 +3030,10 @@
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
-      <c r="A72" s="2">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2555,10 +3041,10 @@
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
-      <c r="A73" s="2">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2566,10 +3052,10 @@
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
-      <c r="A74" s="2">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2577,10 +3063,10 @@
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
-      <c r="A75" s="2">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2588,10 +3074,10 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
-      <c r="A76" s="2">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2599,10 +3085,10 @@
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:3">
-      <c r="A77" s="2">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2610,10 +3096,10 @@
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:3">
-      <c r="A78" s="2">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2621,10 +3107,10 @@
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:3">
-      <c r="A79" s="2">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2632,10 +3118,10 @@
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:3">
-      <c r="A80" s="2">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2643,10 +3129,10 @@
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:3">
-      <c r="A81" s="2">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2654,10 +3140,10 @@
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:3">
-      <c r="A82" s="2">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2665,10 +3151,10 @@
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
-      <c r="A83" s="2">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2676,10 +3162,10 @@
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:3">
-      <c r="A84" s="2">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2687,10 +3173,10 @@
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:3">
-      <c r="A85" s="2">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2698,10 +3184,10 @@
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:3">
-      <c r="A86" s="2">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="A86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2709,10 +3195,10 @@
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:3">
-      <c r="A87" s="2">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="A87" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2720,10 +3206,10 @@
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:3">
-      <c r="A88" s="2">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2731,10 +3217,10 @@
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
-      <c r="A89" s="2">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2742,10 +3228,10 @@
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
-      <c r="A90" s="2">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="A90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2753,10 +3239,10 @@
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
-      <c r="A91" s="2">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2764,10 +3250,10 @@
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
-      <c r="A92" s="2">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -2775,10 +3261,10 @@
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:3">
-      <c r="A93" s="2">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2786,10 +3272,10 @@
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:3">
-      <c r="A94" s="2">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2797,10 +3283,10 @@
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:3">
-      <c r="A95" s="2">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2808,10 +3294,10 @@
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:3">
-      <c r="A96" s="2">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="A96" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -2819,10 +3305,10 @@
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:3">
-      <c r="A97" s="2">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="A97" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -2830,10 +3316,10 @@
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:3">
-      <c r="A98" s="2">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2841,10 +3327,10 @@
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:3">
-      <c r="A99" s="2">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="A99" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -2852,10 +3338,10 @@
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:3">
-      <c r="A100" s="2">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="A100" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2863,10 +3349,10 @@
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:3">
-      <c r="A101" s="2">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="A101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -2874,10 +3360,10 @@
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:3">
-      <c r="A102" s="2">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="A102" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -2885,10 +3371,10 @@
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:3">
-      <c r="A103" s="2">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="A103" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -2896,10 +3382,10 @@
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:3">
-      <c r="A104" s="2">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="A104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -2907,10 +3393,10 @@
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:3">
-      <c r="A105" s="2">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="A105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -2918,10 +3404,10 @@
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:3">
-      <c r="A106" s="2">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="A106" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -2929,10 +3415,10 @@
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:3">
-      <c r="A107" s="2">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="A107" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -2940,10 +3426,10 @@
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:3">
-      <c r="A108" s="2">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="A108" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -2951,10 +3437,10 @@
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:3">
-      <c r="A109" s="2">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="A109" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2962,10 +3448,10 @@
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:3">
-      <c r="A110" s="2">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="A110" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -2973,10 +3459,10 @@
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:3">
-      <c r="A111" s="2">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="A111" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -2984,10 +3470,10 @@
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:3">
-      <c r="A112" s="2">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="A112" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -2995,10 +3481,10 @@
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:3">
-      <c r="A113" s="2">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="A113" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -3006,10 +3492,10 @@
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:3">
-      <c r="A114" s="2">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -3017,10 +3503,10 @@
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:3">
-      <c r="A115" s="2">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="A115" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -3028,10 +3514,10 @@
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:3">
-      <c r="A116" s="2">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="A116" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -3039,10 +3525,10 @@
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:3">
-      <c r="A117" s="2">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="A117" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -3050,10 +3536,10 @@
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:3">
-      <c r="A118" s="2">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="A118" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3061,10 +3547,10 @@
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:3">
-      <c r="A119" s="2">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="A119" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -3072,10 +3558,10 @@
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:3">
-      <c r="A120" s="2">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="A120" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3083,10 +3569,10 @@
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:3">
-      <c r="A121" s="2">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -3094,10 +3580,10 @@
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:3">
-      <c r="A122" s="2">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="A122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -3105,10 +3591,10 @@
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:3">
-      <c r="A123" s="2">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="A123" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -3116,10 +3602,10 @@
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:3">
-      <c r="A124" s="2">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -3127,10 +3613,10 @@
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:3">
-      <c r="A125" s="2">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -3138,10 +3624,10 @@
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:3">
-      <c r="A126" s="2">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="A126" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -3149,10 +3635,10 @@
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:3">
-      <c r="A127" s="2">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -3160,10 +3646,10 @@
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:3">
-      <c r="A128" s="2">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="A128" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -3171,10 +3657,10 @@
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:3">
-      <c r="A129" s="2">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="A129" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -3182,10 +3668,10 @@
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:3">
-      <c r="A130" s="2">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="A130" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -3193,10 +3679,10 @@
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:3">
-      <c r="A131" s="2">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="A131" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -3204,10 +3690,10 @@
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:3">
-      <c r="A132" s="2">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="A132" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -3215,10 +3701,10 @@
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:3">
-      <c r="A133" s="2">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="A133" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -3226,10 +3712,10 @@
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:3">
-      <c r="A134" s="2">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -3237,10 +3723,10 @@
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:3">
-      <c r="A135" s="2">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="A135" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -3248,10 +3734,10 @@
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:3">
-      <c r="A136" s="2">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="A136" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -3259,10 +3745,10 @@
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:3">
-      <c r="A137" s="2">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="A137" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -3270,10 +3756,10 @@
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:3">
-      <c r="A138" s="2">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="A138" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -3281,10 +3767,10 @@
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:3">
-      <c r="A139" s="2">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="A139" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -3292,10 +3778,10 @@
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:3">
-      <c r="A140" s="2">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="A140" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -3303,10 +3789,10 @@
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:3">
-      <c r="A141" s="2">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="A141" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -3314,10 +3800,10 @@
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:3">
-      <c r="A142" s="2">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="A142" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -3325,10 +3811,10 @@
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:3">
-      <c r="A143" s="2">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="A143" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -3336,10 +3822,10 @@
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:3">
-      <c r="A144" s="2">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="A144" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -3347,10 +3833,10 @@
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:3">
-      <c r="A145" s="2">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="A145" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -3358,10 +3844,10 @@
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:3">
-      <c r="A146" s="2">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="A146" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -3369,10 +3855,10 @@
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:3">
-      <c r="A147" s="2">
-        <v>147</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="A147" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -3380,10 +3866,10 @@
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:3">
-      <c r="A148" s="2">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="A148" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -3391,10 +3877,10 @@
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:3">
-      <c r="A149" s="2">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="A149" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -3402,10 +3888,10 @@
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:3">
-      <c r="A150" s="2">
-        <v>150</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="A150" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -3413,10 +3899,10 @@
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:3">
-      <c r="A151" s="2">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="A151" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -3424,10 +3910,10 @@
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:3">
-      <c r="A152" s="2">
-        <v>152</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="A152" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -3435,10 +3921,10 @@
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:3">
-      <c r="A153" s="2">
-        <v>153</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="A153" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -3446,10 +3932,10 @@
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:3">
-      <c r="A154" s="2">
-        <v>154</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="A154" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -3457,10 +3943,10 @@
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:3">
-      <c r="A155" s="2">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="A155" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -3468,10 +3954,10 @@
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:3">
-      <c r="A156" s="2">
-        <v>156</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="A156" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -3479,10 +3965,10 @@
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:3">
-      <c r="A157" s="2">
-        <v>157</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="A157" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -3490,10 +3976,10 @@
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:3">
-      <c r="A158" s="2">
-        <v>158</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="A158" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -3501,10 +3987,10 @@
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:3">
-      <c r="A159" s="2">
-        <v>159</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="A159" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -3512,10 +3998,10 @@
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:3">
-      <c r="A160" s="2">
-        <v>160</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="A160" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -3523,10 +4009,10 @@
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:3">
-      <c r="A161" s="2">
-        <v>161</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="A161" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -3534,10 +4020,10 @@
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:3">
-      <c r="A162" s="2">
-        <v>162</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="A162" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
